--- a/data/144/SCB/HIKPIND22015.xlsx
+++ b/data/144/SCB/HIKPIND22015.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="PR0101H7" sheetId="2" r:id="rId2"/>
+    <x:sheet name="PR0101TM" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -1018,7 +1018,7 @@
     <x:t>Internal reference code:</x:t>
   </x:si>
   <x:si>
-    <x:t>PR0101H7</x:t>
+    <x:t>PR0101TM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1027,7 +1027,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0.00"/>
+    <x:numFmt numFmtId="165" formatCode="0.00"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -1081,41 +1081,38 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1126,7 +1123,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1409,19 +1406,18 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:KY45"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="311" width="10.840625000000001" style="0" customWidth="1"/>
+    <x:col min="1" max="311" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:311">
@@ -3344,9 +3340,6 @@
         <x:v>320</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:311">
-      <x:c r="A18" s="0" t="s"/>
-    </x:row>
     <x:row r="19" spans="1:311">
       <x:c r="A19" s="0" t="s">
         <x:v>321</x:v>
@@ -3362,12 +3355,6 @@
         <x:v>323</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:311">
-      <x:c r="A22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:311">
-      <x:c r="A23" s="0" t="s"/>
-    </x:row>
     <x:row r="26" spans="1:311">
       <x:c r="A26" s="0" t="s">
         <x:v>324</x:v>
@@ -3424,6 +3411,9 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A6:KY6"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
